--- a/genome_plot/situations/01_pseudoexon/splai_pseudoexon.xlsx
+++ b/genome_plot/situations/01_pseudoexon/splai_pseudoexon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/vol/work/Github/R-Projects/genome_plot/situations/01_pseudoexon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utsu/work/Github/R-Projects/genome_plot/situations/01_pseudoexon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913D00E-4422-3147-A540-234B4BD62017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2608754-D49D-2049-8802-207D634A136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76820" yWindow="500" windowWidth="34140" windowHeight="19580" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20120" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>start</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>DonorLoss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6830620-AF35-BC40-8236-88D1B6CF6729}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="326" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +474,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1100</v>
       </c>
@@ -490,8 +497,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
@@ -510,8 +520,11 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1110</v>
       </c>
@@ -530,8 +543,11 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0</v>
       </c>
@@ -549,6 +565,32 @@
       </c>
       <c r="F5">
         <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1090</v>
+      </c>
+      <c r="B6">
+        <v>1090</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/genome_plot/situations/01_pseudoexon/splai_pseudoexon.xlsx
+++ b/genome_plot/situations/01_pseudoexon/splai_pseudoexon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utsu/work/Github/R-Projects/genome_plot/situations/01_pseudoexon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2608754-D49D-2049-8802-207D634A136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7703C3A6-9DB3-204E-9590-1DC7AA323D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20120" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
